--- a/PowerApps/Design Data Models/Design Data Models.xlsx
+++ b/PowerApps/Design Data Models/Design Data Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Udemy\Power-Platform\PowerApps\Design Data Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC7BDB-4D99-4ADF-A165-A6FE88E04A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1047F58-9226-41C1-87B1-3825269EEABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="3090" windowWidth="15375" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="2820" windowWidth="15375" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,77 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Main Phone</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Country/Region</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>DateOfExpense</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Account Table</t>
+  </si>
+  <si>
+    <t>Relationship/Lookup</t>
+  </si>
+  <si>
+    <t>1xmuitos</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Primary Key(generated)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,6 +143,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12370</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581396</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF77765-FCF6-7BFC-2835-28564C3A409D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1595747" y="136071"/>
+          <a:ext cx="569026" cy="915390"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,14 +466,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>